--- a/funds/Interval/var_data_SBNR_20240221.xlsx
+++ b/funds/Interval/var_data_SBNR_20240221.xlsx
@@ -1005,7 +1005,7 @@
         <v>5</v>
       </c>
       <c r="F2">
-        <v>0.006101338523879154</v>
+        <v>0.006101338523879155</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2425,7 +2425,7 @@
         <v>22</v>
       </c>
       <c r="F73">
-        <v>-0.0001974962547137306</v>
+        <v>-0.0001974962547137307</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2445,7 +2445,7 @@
         <v>23</v>
       </c>
       <c r="F74">
-        <v>-9.920580434266292E-05</v>
+        <v>-9.920580434266293E-05</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2465,7 +2465,7 @@
         <v>24</v>
       </c>
       <c r="F75">
-        <v>-5.620194913224688E-05</v>
+        <v>-5.620194913224689E-05</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2545,7 +2545,7 @@
         <v>28</v>
       </c>
       <c r="F79">
-        <v>9.340862455739384E-05</v>
+        <v>9.340862455739385E-05</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2585,7 +2585,7 @@
         <v>30</v>
       </c>
       <c r="F81">
-        <v>-7.299139957898827E-05</v>
+        <v>-7.299139957898828E-05</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2625,7 +2625,7 @@
         <v>32</v>
       </c>
       <c r="F83">
-        <v>-8.958538301059677E-05</v>
+        <v>-8.958538301059678E-05</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2645,7 +2645,7 @@
         <v>33</v>
       </c>
       <c r="F84">
-        <v>9.661196590960965E-05</v>
+        <v>9.661196590960966E-05</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2765,7 +2765,7 @@
         <v>39</v>
       </c>
       <c r="F90">
-        <v>-0.0002129236302157364</v>
+        <v>-0.0002129236302157365</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2785,7 +2785,7 @@
         <v>40</v>
       </c>
       <c r="F91">
-        <v>-7.591840642552969E-05</v>
+        <v>-7.591840642552971E-05</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2825,7 +2825,7 @@
         <v>42</v>
       </c>
       <c r="F93">
-        <v>0.0002539975234439938</v>
+        <v>0.0002539975234439939</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2865,7 +2865,7 @@
         <v>44</v>
       </c>
       <c r="F95">
-        <v>7.348793655751333E-05</v>
+        <v>7.348793655751334E-05</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2885,7 +2885,7 @@
         <v>45</v>
       </c>
       <c r="F96">
-        <v>9.426621426816396E-05</v>
+        <v>9.426621426816397E-05</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2905,7 +2905,7 @@
         <v>46</v>
       </c>
       <c r="F97">
-        <v>5.535719419127616E-05</v>
+        <v>5.535719419127618E-05</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2925,7 +2925,7 @@
         <v>47</v>
       </c>
       <c r="F98">
-        <v>-3.926354304965737E-05</v>
+        <v>-3.926354304965738E-05</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3005,7 +3005,7 @@
         <v>51</v>
       </c>
       <c r="F102">
-        <v>-3.380782095540814E-05</v>
+        <v>-3.380782095540815E-05</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3045,7 +3045,7 @@
         <v>53</v>
       </c>
       <c r="F104">
-        <v>-5.557641305607519E-05</v>
+        <v>-5.55764130560752E-05</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3125,7 +3125,7 @@
         <v>57</v>
       </c>
       <c r="F108">
-        <v>-6.44423791901052E-05</v>
+        <v>-6.444237919010521E-05</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3185,7 +3185,7 @@
         <v>60</v>
       </c>
       <c r="F111">
-        <v>-9.848474380240317E-05</v>
+        <v>-9.848474380240319E-05</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3205,7 +3205,7 @@
         <v>61</v>
       </c>
       <c r="F112">
-        <v>0.0001064525414087133</v>
+        <v>0.0001064525414087134</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3265,7 +3265,7 @@
         <v>64</v>
       </c>
       <c r="F115">
-        <v>8.929959802344084E-05</v>
+        <v>8.929959802344085E-05</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3285,7 +3285,7 @@
         <v>65</v>
       </c>
       <c r="F116">
-        <v>-0.0001102578445494341</v>
+        <v>-0.0001102578445494342</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3305,7 +3305,7 @@
         <v>66</v>
       </c>
       <c r="F117">
-        <v>9.785750290222032E-05</v>
+        <v>9.785750290222034E-05</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3345,7 +3345,7 @@
         <v>68</v>
       </c>
       <c r="F119">
-        <v>-0.0001754608253353382</v>
+        <v>-0.0001754608253353383</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3385,7 +3385,7 @@
         <v>70</v>
       </c>
       <c r="F121">
-        <v>-8.077369658485022E-05</v>
+        <v>-8.077369658485023E-05</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3405,7 +3405,7 @@
         <v>71</v>
       </c>
       <c r="F122">
-        <v>-8.859627487605692E-05</v>
+        <v>-8.859627487605694E-05</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3425,7 +3425,7 @@
         <v>72</v>
       </c>
       <c r="F123">
-        <v>-4.104734960768222E-05</v>
+        <v>-4.104734960768223E-05</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3445,7 +3445,7 @@
         <v>73</v>
       </c>
       <c r="F124">
-        <v>8.463629177588604E-05</v>
+        <v>8.463629177588605E-05</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3465,7 +3465,7 @@
         <v>74</v>
       </c>
       <c r="F125">
-        <v>-6.330841987991117E-05</v>
+        <v>-6.330841987991118E-05</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3505,7 +3505,7 @@
         <v>76</v>
       </c>
       <c r="F127">
-        <v>8.431734035642891E-05</v>
+        <v>8.431734035642893E-05</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3565,7 +3565,7 @@
         <v>79</v>
       </c>
       <c r="F130">
-        <v>0.0001019310969612291</v>
+        <v>0.0001019310969612292</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3705,7 +3705,7 @@
         <v>19</v>
       </c>
       <c r="F137">
-        <v>-0.0003284290349035374</v>
+        <v>-0.0003284290349035365</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3725,7 +3725,7 @@
         <v>20</v>
       </c>
       <c r="F138">
-        <v>-0.0001062550867303187</v>
+        <v>-0.0001062550867303178</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3745,7 +3745,7 @@
         <v>21</v>
       </c>
       <c r="F139">
-        <v>0.0002315307392961622</v>
+        <v>0.000231530739296164</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3765,7 +3765,7 @@
         <v>22</v>
       </c>
       <c r="F140">
-        <v>0.0002575001059763656</v>
+        <v>0.0002575001059763665</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3785,7 +3785,7 @@
         <v>23</v>
       </c>
       <c r="F141">
-        <v>0.0001630758319304867</v>
+        <v>0.0001630758319304875</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3805,7 +3805,7 @@
         <v>24</v>
       </c>
       <c r="F142">
-        <v>1.366993329258905E-05</v>
+        <v>1.366993329258992E-05</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3825,7 +3825,7 @@
         <v>25</v>
       </c>
       <c r="F143">
-        <v>9.534908928728741E-05</v>
+        <v>9.534908928728828E-05</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3845,7 +3845,7 @@
         <v>26</v>
       </c>
       <c r="F144">
-        <v>-0.0001959073367934607</v>
+        <v>-0.0001959073367934598</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3865,7 +3865,7 @@
         <v>27</v>
       </c>
       <c r="F145">
-        <v>0.0001762571034123793</v>
+        <v>0.0001762571034123802</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3885,7 +3885,7 @@
         <v>28</v>
       </c>
       <c r="F146">
-        <v>-5.916740070910972E-05</v>
+        <v>-5.916740070910885E-05</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3905,7 +3905,7 @@
         <v>29</v>
       </c>
       <c r="F147">
-        <v>2.841841707009515E-05</v>
+        <v>2.841841707009601E-05</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3925,7 +3925,7 @@
         <v>30</v>
       </c>
       <c r="F148">
-        <v>0.0001235078204069734</v>
+        <v>0.0001235078204069743</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3945,7 +3945,7 @@
         <v>31</v>
       </c>
       <c r="F149">
-        <v>0.0002911162669589056</v>
+        <v>0.0002911162669589065</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3965,7 +3965,7 @@
         <v>32</v>
       </c>
       <c r="F150">
-        <v>8.651965679028206E-05</v>
+        <v>8.651965679028293E-05</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3985,7 +3985,7 @@
         <v>33</v>
       </c>
       <c r="F151">
-        <v>-0.0004714869963553915</v>
+        <v>-0.0004714869963553907</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4025,7 +4025,7 @@
         <v>35</v>
       </c>
       <c r="F153">
-        <v>0.0001887902299123698</v>
+        <v>0.0001887902299123707</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4065,7 +4065,7 @@
         <v>37</v>
       </c>
       <c r="F155">
-        <v>5.456127348240497E-07</v>
+        <v>5.456127348249171E-07</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4085,7 +4085,7 @@
         <v>38</v>
       </c>
       <c r="F156">
-        <v>0.0001684020103628475</v>
+        <v>0.0001684020103628484</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4125,7 +4125,7 @@
         <v>40</v>
       </c>
       <c r="F158">
-        <v>7.305876863437227E-05</v>
+        <v>7.305876863437314E-05</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4145,7 +4145,7 @@
         <v>41</v>
       </c>
       <c r="F159">
-        <v>-3.415663517964546E-05</v>
+        <v>-3.415663517964459E-05</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4185,7 +4185,7 @@
         <v>43</v>
       </c>
       <c r="F161">
-        <v>0.0001111576858937252</v>
+        <v>0.000111157685893727</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4205,7 +4205,7 @@
         <v>44</v>
       </c>
       <c r="F162">
-        <v>-0.0001180779392093529</v>
+        <v>-0.0001180779392093521</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4245,7 +4245,7 @@
         <v>46</v>
       </c>
       <c r="F164">
-        <v>-9.767304643275038E-05</v>
+        <v>-9.767304643274952E-05</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4265,7 +4265,7 @@
         <v>47</v>
       </c>
       <c r="F165">
-        <v>0.0001897662339108369</v>
+        <v>0.0001897662339108378</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4285,7 +4285,7 @@
         <v>48</v>
       </c>
       <c r="F166">
-        <v>-6.451612950728047E-05</v>
+        <v>-6.451612950727961E-05</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4305,7 +4305,7 @@
         <v>49</v>
       </c>
       <c r="F167">
-        <v>0.00017054999837883</v>
+        <v>0.0001705499983788309</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4325,7 +4325,7 @@
         <v>50</v>
       </c>
       <c r="F168">
-        <v>0.0001198587170504195</v>
+        <v>0.0001198587170504204</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4365,7 +4365,7 @@
         <v>52</v>
       </c>
       <c r="F170">
-        <v>0.000388952222460064</v>
+        <v>0.0003889522224600648</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4385,7 +4385,7 @@
         <v>53</v>
       </c>
       <c r="F171">
-        <v>5.029114302721252E-05</v>
+        <v>5.029114302721339E-05</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4405,7 +4405,7 @@
         <v>54</v>
       </c>
       <c r="F172">
-        <v>0.0001426377246361915</v>
+        <v>0.0001426377246361923</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4445,7 +4445,7 @@
         <v>56</v>
       </c>
       <c r="F174">
-        <v>-4.861734908595539E-05</v>
+        <v>-4.861734908595452E-05</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4465,7 +4465,7 @@
         <v>57</v>
       </c>
       <c r="F175">
-        <v>0.001510367470507651</v>
+        <v>0.001510367470507652</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4485,7 +4485,7 @@
         <v>58</v>
       </c>
       <c r="F176">
-        <v>-0.0001127318844976024</v>
+        <v>-0.0001127318844976015</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4505,7 +4505,7 @@
         <v>59</v>
       </c>
       <c r="F177">
-        <v>-0.0003323328722476772</v>
+        <v>-0.0003323328722476763</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4525,7 +4525,7 @@
         <v>60</v>
       </c>
       <c r="F178">
-        <v>0.0001956728964369516</v>
+        <v>0.0001956728964369533</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4545,7 +4545,7 @@
         <v>61</v>
       </c>
       <c r="F179">
-        <v>-1.210665397405851E-05</v>
+        <v>-1.210665397405764E-05</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4565,7 +4565,7 @@
         <v>62</v>
       </c>
       <c r="F180">
-        <v>-1.484666794749918E-05</v>
+        <v>-1.484666794749831E-05</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4585,7 +4585,7 @@
         <v>63</v>
       </c>
       <c r="F181">
-        <v>-0.0001972911670744112</v>
+        <v>-0.0001972911670744103</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4605,7 +4605,7 @@
         <v>64</v>
       </c>
       <c r="F182">
-        <v>-4.480649831314909E-05</v>
+        <v>-4.480649831314822E-05</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4625,7 +4625,7 @@
         <v>65</v>
       </c>
       <c r="F183">
-        <v>0.000149708679433775</v>
+        <v>0.0001497086794337759</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4645,7 +4645,7 @@
         <v>66</v>
       </c>
       <c r="F184">
-        <v>-0.0003061697242639824</v>
+        <v>-0.0003061697242639815</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4665,7 +4665,7 @@
         <v>67</v>
       </c>
       <c r="F185">
-        <v>0.0002193545650780856</v>
+        <v>0.0002193545650780874</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4685,7 +4685,7 @@
         <v>68</v>
       </c>
       <c r="F186">
-        <v>0.0004865915415749253</v>
+        <v>0.0004865915415749262</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4705,7 +4705,7 @@
         <v>69</v>
       </c>
       <c r="F187">
-        <v>5.514841428018794E-05</v>
+        <v>5.51484142801888E-05</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4725,7 +4725,7 @@
         <v>70</v>
       </c>
       <c r="F188">
-        <v>0.0008249432971943558</v>
+        <v>0.0008249432971943567</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4745,7 +4745,7 @@
         <v>71</v>
       </c>
       <c r="F189">
-        <v>9.24030928485739E-05</v>
+        <v>9.240309284857477E-05</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4765,7 +4765,7 @@
         <v>72</v>
       </c>
       <c r="F190">
-        <v>6.285416891402013E-05</v>
+        <v>6.2854168914021E-05</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4785,7 +4785,7 @@
         <v>73</v>
       </c>
       <c r="F191">
-        <v>0.0001039182890530911</v>
+        <v>0.0001039182890530928</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4805,7 +4805,7 @@
         <v>74</v>
       </c>
       <c r="F192">
-        <v>2.9302094463164E-05</v>
+        <v>2.930209446316487E-05</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4825,7 +4825,7 @@
         <v>75</v>
       </c>
       <c r="F193">
-        <v>1.974868468556431E-05</v>
+        <v>1.974868468556518E-05</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4845,7 +4845,7 @@
         <v>76</v>
       </c>
       <c r="F194">
-        <v>6.01187407112385E-05</v>
+        <v>6.011874071123937E-05</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4865,7 +4865,7 @@
         <v>77</v>
       </c>
       <c r="F195">
-        <v>6.215728654059526E-05</v>
+        <v>6.215728654059612E-05</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4885,7 +4885,7 @@
         <v>78</v>
       </c>
       <c r="F196">
-        <v>-0.0002216477328975059</v>
+        <v>-0.000221647732897505</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4905,7 +4905,7 @@
         <v>79</v>
       </c>
       <c r="F197">
-        <v>-4.336808689942018E-18</v>
+        <v>-3.469446951953614E-18</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4925,7 +4925,7 @@
         <v>80</v>
       </c>
       <c r="F198">
-        <v>-3.191919836245671E-05</v>
+        <v>-3.191919836245585E-05</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4945,7 +4945,7 @@
         <v>81</v>
       </c>
       <c r="F199">
-        <v>-8.863273586919712E-05</v>
+        <v>-8.863273586919625E-05</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4985,7 +4985,7 @@
         <v>83</v>
       </c>
       <c r="F201">
-        <v>-0.0001069202534333498</v>
+        <v>-0.0001069202534333489</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5005,7 +5005,7 @@
         <v>84</v>
       </c>
       <c r="F202">
-        <v>-3.553582194362401E-05</v>
+        <v>-3.553582194362314E-05</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5025,7 +5025,7 @@
         <v>85</v>
       </c>
       <c r="F203">
-        <v>-0.0002153507944291262</v>
+        <v>-0.0002153507944291254</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -8205,7 +8205,7 @@
         <v>42</v>
       </c>
       <c r="F362">
-        <v>-0.000365731277964897</v>
+        <v>-0.0003657312779648987</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -8465,7 +8465,7 @@
         <v>55</v>
       </c>
       <c r="F375">
-        <v>-2.429123479925042E-05</v>
+        <v>-2.429123479925216E-05</v>
       </c>
     </row>
     <row r="376" spans="1:6">
@@ -8705,7 +8705,7 @@
         <v>67</v>
       </c>
       <c r="F387">
-        <v>0.0003102372938633309</v>
+        <v>0.0003102372938633326</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -8905,7 +8905,7 @@
         <v>77</v>
       </c>
       <c r="F397">
-        <v>8.791022135043285E-05</v>
+        <v>8.791022135043111E-05</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -9005,7 +9005,7 @@
         <v>82</v>
       </c>
       <c r="F402">
-        <v>-0.000461017621330587</v>
+        <v>-0.0004610176213305905</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -9085,7 +9085,7 @@
         <v>5</v>
       </c>
       <c r="F406">
-        <v>0.006101338523879154</v>
+        <v>0.006101338523879155</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -10485,7 +10485,7 @@
         <v>88</v>
       </c>
       <c r="F476">
-        <v>-3.380782095540814E-05</v>
+        <v>-3.380782095540815E-05</v>
       </c>
     </row>
     <row r="477" spans="1:6">
@@ -10505,7 +10505,7 @@
         <v>89</v>
       </c>
       <c r="F477">
-        <v>-0.0001754608253353382</v>
+        <v>-0.0001754608253353383</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -10525,7 +10525,7 @@
         <v>90</v>
       </c>
       <c r="F478">
-        <v>0.0002539975234439938</v>
+        <v>0.0002539975234439939</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -10545,7 +10545,7 @@
         <v>91</v>
       </c>
       <c r="F479">
-        <v>-5.620194913224688E-05</v>
+        <v>-5.620194913224689E-05</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -10585,7 +10585,7 @@
         <v>93</v>
       </c>
       <c r="F481">
-        <v>-5.557641305607519E-05</v>
+        <v>-5.55764130560752E-05</v>
       </c>
     </row>
     <row r="482" spans="1:6">
@@ -10605,7 +10605,7 @@
         <v>94</v>
       </c>
       <c r="F482">
-        <v>-6.330841987991117E-05</v>
+        <v>-6.330841987991118E-05</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -10625,7 +10625,7 @@
         <v>95</v>
       </c>
       <c r="F483">
-        <v>0.0001019310969612291</v>
+        <v>0.0001019310969612292</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -10685,7 +10685,7 @@
         <v>98</v>
       </c>
       <c r="F486">
-        <v>-8.859627487605692E-05</v>
+        <v>-8.859627487605694E-05</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -10705,7 +10705,7 @@
         <v>99</v>
       </c>
       <c r="F487">
-        <v>-0.0001974962547137306</v>
+        <v>-0.0001974962547137307</v>
       </c>
     </row>
     <row r="488" spans="1:6">
@@ -10785,7 +10785,7 @@
         <v>103</v>
       </c>
       <c r="F491">
-        <v>-6.44423791901052E-05</v>
+        <v>-6.444237919010521E-05</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -10825,7 +10825,7 @@
         <v>105</v>
       </c>
       <c r="F493">
-        <v>9.661196590960965E-05</v>
+        <v>9.661196590960966E-05</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -10865,7 +10865,7 @@
         <v>107</v>
       </c>
       <c r="F495">
-        <v>8.929959802344084E-05</v>
+        <v>8.929959802344085E-05</v>
       </c>
     </row>
     <row r="496" spans="1:6">
@@ -10885,7 +10885,7 @@
         <v>108</v>
       </c>
       <c r="F496">
-        <v>-3.926354304965737E-05</v>
+        <v>-3.926354304965738E-05</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -10905,7 +10905,7 @@
         <v>109</v>
       </c>
       <c r="F497">
-        <v>0.0001064525414087133</v>
+        <v>0.0001064525414087134</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -11005,7 +11005,7 @@
         <v>114</v>
       </c>
       <c r="F502">
-        <v>-4.104734960768222E-05</v>
+        <v>-4.104734960768223E-05</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -11025,7 +11025,7 @@
         <v>115</v>
       </c>
       <c r="F503">
-        <v>9.340862455739384E-05</v>
+        <v>9.340862455739385E-05</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -11045,7 +11045,7 @@
         <v>116</v>
       </c>
       <c r="F504">
-        <v>-7.299139957898827E-05</v>
+        <v>-7.299139957898828E-05</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -11065,7 +11065,7 @@
         <v>117</v>
       </c>
       <c r="F505">
-        <v>-0.0002129236302157364</v>
+        <v>-0.0002129236302157365</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -11165,7 +11165,7 @@
         <v>122</v>
       </c>
       <c r="F510">
-        <v>-0.0001102578445494341</v>
+        <v>-0.0001102578445494342</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -11205,7 +11205,7 @@
         <v>124</v>
       </c>
       <c r="F512">
-        <v>-8.077369658485022E-05</v>
+        <v>-8.077369658485023E-05</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -11225,7 +11225,7 @@
         <v>125</v>
       </c>
       <c r="F513">
-        <v>9.426621426816396E-05</v>
+        <v>9.426621426816397E-05</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -11245,7 +11245,7 @@
         <v>126</v>
       </c>
       <c r="F514">
-        <v>-9.920580434266292E-05</v>
+        <v>-9.920580434266293E-05</v>
       </c>
     </row>
     <row r="515" spans="1:6">
@@ -11305,7 +11305,7 @@
         <v>129</v>
       </c>
       <c r="F517">
-        <v>8.463629177588604E-05</v>
+        <v>8.463629177588605E-05</v>
       </c>
     </row>
     <row r="518" spans="1:6">
@@ -11465,7 +11465,7 @@
         <v>137</v>
       </c>
       <c r="F525">
-        <v>5.535719419127616E-05</v>
+        <v>5.535719419127618E-05</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -11525,7 +11525,7 @@
         <v>140</v>
       </c>
       <c r="F528">
-        <v>7.348793655751333E-05</v>
+        <v>7.348793655751334E-05</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -11585,7 +11585,7 @@
         <v>143</v>
       </c>
       <c r="F531">
-        <v>-9.848474380240317E-05</v>
+        <v>-9.848474380240319E-05</v>
       </c>
     </row>
     <row r="532" spans="1:6">
@@ -11605,7 +11605,7 @@
         <v>144</v>
       </c>
       <c r="F532">
-        <v>-7.591840642552969E-05</v>
+        <v>-7.591840642552971E-05</v>
       </c>
     </row>
     <row r="533" spans="1:6">
@@ -11645,7 +11645,7 @@
         <v>146</v>
       </c>
       <c r="F534">
-        <v>-8.958538301059677E-05</v>
+        <v>-8.958538301059678E-05</v>
       </c>
     </row>
     <row r="535" spans="1:6">
@@ -11665,7 +11665,7 @@
         <v>147</v>
       </c>
       <c r="F535">
-        <v>8.431734035642891E-05</v>
+        <v>8.431734035642893E-05</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -11745,7 +11745,7 @@
         <v>151</v>
       </c>
       <c r="F539">
-        <v>9.785750290222032E-05</v>
+        <v>9.785750290222034E-05</v>
       </c>
     </row>
     <row r="540" spans="1:6">
@@ -11785,7 +11785,7 @@
         <v>86</v>
       </c>
       <c r="F541">
-        <v>-3.191919836245671E-05</v>
+        <v>-3.191919836245585E-05</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -11805,7 +11805,7 @@
         <v>87</v>
       </c>
       <c r="F542">
-        <v>0.000388952222460064</v>
+        <v>0.0003889522224600648</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -11845,7 +11845,7 @@
         <v>89</v>
       </c>
       <c r="F544">
-        <v>0.0004865915415749253</v>
+        <v>0.0004865915415749262</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -11885,7 +11885,7 @@
         <v>91</v>
       </c>
       <c r="F546">
-        <v>1.366993329258905E-05</v>
+        <v>1.366993329258992E-05</v>
       </c>
     </row>
     <row r="547" spans="1:6">
@@ -11925,7 +11925,7 @@
         <v>93</v>
       </c>
       <c r="F548">
-        <v>5.029114302721252E-05</v>
+        <v>5.029114302721339E-05</v>
       </c>
     </row>
     <row r="549" spans="1:6">
@@ -11945,7 +11945,7 @@
         <v>94</v>
       </c>
       <c r="F549">
-        <v>2.9302094463164E-05</v>
+        <v>2.930209446316487E-05</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -11965,7 +11965,7 @@
         <v>95</v>
       </c>
       <c r="F550">
-        <v>-4.336808689942018E-18</v>
+        <v>-3.469446951953614E-18</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -11985,7 +11985,7 @@
         <v>96</v>
       </c>
       <c r="F551">
-        <v>-0.0002153507944291262</v>
+        <v>-0.0002153507944291254</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -12005,7 +12005,7 @@
         <v>97</v>
       </c>
       <c r="F552">
-        <v>1.974868468556431E-05</v>
+        <v>1.974868468556518E-05</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -12025,7 +12025,7 @@
         <v>98</v>
       </c>
       <c r="F553">
-        <v>9.24030928485739E-05</v>
+        <v>9.240309284857477E-05</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -12045,7 +12045,7 @@
         <v>99</v>
       </c>
       <c r="F554">
-        <v>0.0002575001059763656</v>
+        <v>0.0002575001059763665</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -12065,7 +12065,7 @@
         <v>100</v>
       </c>
       <c r="F555">
-        <v>-0.0001959073367934607</v>
+        <v>-0.0001959073367934598</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -12085,7 +12085,7 @@
         <v>101</v>
       </c>
       <c r="F556">
-        <v>0.0002911162669589056</v>
+        <v>0.0002911162669589065</v>
       </c>
     </row>
     <row r="557" spans="1:6">
@@ -12105,7 +12105,7 @@
         <v>102</v>
       </c>
       <c r="F557">
-        <v>-1.484666794749918E-05</v>
+        <v>-1.484666794749831E-05</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -12125,7 +12125,7 @@
         <v>103</v>
       </c>
       <c r="F558">
-        <v>0.001510367470507651</v>
+        <v>0.001510367470507652</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -12145,7 +12145,7 @@
         <v>104</v>
       </c>
       <c r="F559">
-        <v>0.0001198587170504195</v>
+        <v>0.0001198587170504204</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -12165,7 +12165,7 @@
         <v>105</v>
       </c>
       <c r="F560">
-        <v>-0.0004714869963553915</v>
+        <v>-0.0004714869963553907</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -12185,7 +12185,7 @@
         <v>106</v>
       </c>
       <c r="F561">
-        <v>0.0001762571034123793</v>
+        <v>0.0001762571034123802</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -12205,7 +12205,7 @@
         <v>107</v>
       </c>
       <c r="F562">
-        <v>-4.480649831314909E-05</v>
+        <v>-4.480649831314822E-05</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -12225,7 +12225,7 @@
         <v>108</v>
       </c>
       <c r="F563">
-        <v>0.0001897662339108369</v>
+        <v>0.0001897662339108378</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -12245,7 +12245,7 @@
         <v>109</v>
       </c>
       <c r="F564">
-        <v>-1.210665397405851E-05</v>
+        <v>-1.210665397405764E-05</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -12265,7 +12265,7 @@
         <v>110</v>
       </c>
       <c r="F565">
-        <v>-0.0001069202534333498</v>
+        <v>-0.0001069202534333489</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -12285,7 +12285,7 @@
         <v>111</v>
       </c>
       <c r="F566">
-        <v>-8.863273586919712E-05</v>
+        <v>-8.863273586919625E-05</v>
       </c>
     </row>
     <row r="567" spans="1:6">
@@ -12325,7 +12325,7 @@
         <v>113</v>
       </c>
       <c r="F568">
-        <v>-0.0003323328722476772</v>
+        <v>-0.0003323328722476763</v>
       </c>
     </row>
     <row r="569" spans="1:6">
@@ -12345,7 +12345,7 @@
         <v>114</v>
       </c>
       <c r="F569">
-        <v>6.285416891402013E-05</v>
+        <v>6.2854168914021E-05</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -12365,7 +12365,7 @@
         <v>115</v>
       </c>
       <c r="F570">
-        <v>-5.916740070910972E-05</v>
+        <v>-5.916740070910885E-05</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -12385,7 +12385,7 @@
         <v>116</v>
       </c>
       <c r="F571">
-        <v>0.0001235078204069734</v>
+        <v>0.0001235078204069743</v>
       </c>
     </row>
     <row r="572" spans="1:6">
@@ -12445,7 +12445,7 @@
         <v>119</v>
       </c>
       <c r="F574">
-        <v>-0.0001127318844976024</v>
+        <v>-0.0001127318844976015</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -12485,7 +12485,7 @@
         <v>121</v>
       </c>
       <c r="F576">
-        <v>0.0001887902299123698</v>
+        <v>0.0001887902299123707</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -12505,7 +12505,7 @@
         <v>122</v>
       </c>
       <c r="F577">
-        <v>0.000149708679433775</v>
+        <v>0.0001497086794337759</v>
       </c>
     </row>
     <row r="578" spans="1:6">
@@ -12525,7 +12525,7 @@
         <v>123</v>
       </c>
       <c r="F578">
-        <v>-0.0001062550867303187</v>
+        <v>-0.0001062550867303178</v>
       </c>
     </row>
     <row r="579" spans="1:6">
@@ -12545,7 +12545,7 @@
         <v>124</v>
       </c>
       <c r="F579">
-        <v>0.0008249432971943558</v>
+        <v>0.0008249432971943567</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -12585,7 +12585,7 @@
         <v>126</v>
       </c>
       <c r="F581">
-        <v>0.0001630758319304867</v>
+        <v>0.0001630758319304875</v>
       </c>
     </row>
     <row r="582" spans="1:6">
@@ -12605,7 +12605,7 @@
         <v>127</v>
       </c>
       <c r="F582">
-        <v>0.0001426377246361915</v>
+        <v>0.0001426377246361923</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -12625,7 +12625,7 @@
         <v>128</v>
       </c>
       <c r="F583">
-        <v>0.0001684020103628475</v>
+        <v>0.0001684020103628484</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -12645,7 +12645,7 @@
         <v>129</v>
       </c>
       <c r="F584">
-        <v>0.0001039182890530911</v>
+        <v>0.0001039182890530928</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -12665,7 +12665,7 @@
         <v>130</v>
       </c>
       <c r="F585">
-        <v>6.215728654059526E-05</v>
+        <v>6.215728654059612E-05</v>
       </c>
     </row>
     <row r="586" spans="1:6">
@@ -12685,7 +12685,7 @@
         <v>131</v>
       </c>
       <c r="F586">
-        <v>-0.0002216477328975059</v>
+        <v>-0.000221647732897505</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -12705,7 +12705,7 @@
         <v>132</v>
       </c>
       <c r="F587">
-        <v>0.0002315307392961622</v>
+        <v>0.000231530739296164</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -12725,7 +12725,7 @@
         <v>133</v>
       </c>
       <c r="F588">
-        <v>5.456127348240497E-07</v>
+        <v>5.456127348249171E-07</v>
       </c>
     </row>
     <row r="589" spans="1:6">
@@ -12745,7 +12745,7 @@
         <v>134</v>
       </c>
       <c r="F589">
-        <v>-0.0003284290349035374</v>
+        <v>-0.0003284290349035365</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -12765,7 +12765,7 @@
         <v>135</v>
       </c>
       <c r="F590">
-        <v>-3.553582194362401E-05</v>
+        <v>-3.553582194362314E-05</v>
       </c>
     </row>
     <row r="591" spans="1:6">
@@ -12785,7 +12785,7 @@
         <v>136</v>
       </c>
       <c r="F591">
-        <v>0.00017054999837883</v>
+        <v>0.0001705499983788309</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -12805,7 +12805,7 @@
         <v>137</v>
       </c>
       <c r="F592">
-        <v>-9.767304643275038E-05</v>
+        <v>-9.767304643274952E-05</v>
       </c>
     </row>
     <row r="593" spans="1:6">
@@ -12825,7 +12825,7 @@
         <v>138</v>
       </c>
       <c r="F593">
-        <v>0.0002193545650780856</v>
+        <v>0.0002193545650780874</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -12845,7 +12845,7 @@
         <v>139</v>
       </c>
       <c r="F594">
-        <v>-6.451612950728047E-05</v>
+        <v>-6.451612950727961E-05</v>
       </c>
     </row>
     <row r="595" spans="1:6">
@@ -12865,7 +12865,7 @@
         <v>140</v>
       </c>
       <c r="F595">
-        <v>-0.0001180779392093529</v>
+        <v>-0.0001180779392093521</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -12885,7 +12885,7 @@
         <v>141</v>
       </c>
       <c r="F596">
-        <v>-4.861734908595539E-05</v>
+        <v>-4.861734908595452E-05</v>
       </c>
     </row>
     <row r="597" spans="1:6">
@@ -12905,7 +12905,7 @@
         <v>142</v>
       </c>
       <c r="F597">
-        <v>-0.0001972911670744112</v>
+        <v>-0.0001972911670744103</v>
       </c>
     </row>
     <row r="598" spans="1:6">
@@ -12925,7 +12925,7 @@
         <v>143</v>
       </c>
       <c r="F598">
-        <v>0.0001956728964369516</v>
+        <v>0.0001956728964369533</v>
       </c>
     </row>
     <row r="599" spans="1:6">
@@ -12945,7 +12945,7 @@
         <v>144</v>
       </c>
       <c r="F599">
-        <v>7.305876863437227E-05</v>
+        <v>7.305876863437314E-05</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -12965,7 +12965,7 @@
         <v>145</v>
       </c>
       <c r="F600">
-        <v>-3.415663517964546E-05</v>
+        <v>-3.415663517964459E-05</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -12985,7 +12985,7 @@
         <v>146</v>
       </c>
       <c r="F601">
-        <v>8.651965679028206E-05</v>
+        <v>8.651965679028293E-05</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -13005,7 +13005,7 @@
         <v>147</v>
       </c>
       <c r="F602">
-        <v>6.01187407112385E-05</v>
+        <v>6.011874071123937E-05</v>
       </c>
     </row>
     <row r="603" spans="1:6">
@@ -13025,7 +13025,7 @@
         <v>148</v>
       </c>
       <c r="F603">
-        <v>2.841841707009515E-05</v>
+        <v>2.841841707009601E-05</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -13045,7 +13045,7 @@
         <v>149</v>
       </c>
       <c r="F604">
-        <v>5.514841428018794E-05</v>
+        <v>5.51484142801888E-05</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -13065,7 +13065,7 @@
         <v>150</v>
       </c>
       <c r="F605">
-        <v>0.0001111576858937252</v>
+        <v>0.000111157685893727</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -13085,7 +13085,7 @@
         <v>151</v>
       </c>
       <c r="F606">
-        <v>-0.0003061697242639824</v>
+        <v>-0.0003061697242639815</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -13105,7 +13105,7 @@
         <v>152</v>
       </c>
       <c r="F607">
-        <v>9.534908928728741E-05</v>
+        <v>9.534908928728828E-05</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -15905,7 +15905,7 @@
         <v>90</v>
       </c>
       <c r="F747">
-        <v>-0.000365731277964897</v>
+        <v>-0.0003657312779648987</v>
       </c>
     </row>
     <row r="748" spans="1:6">
@@ -15945,7 +15945,7 @@
         <v>92</v>
       </c>
       <c r="F749">
-        <v>-0.000461017621330587</v>
+        <v>-0.0004610176213305905</v>
       </c>
     </row>
     <row r="750" spans="1:6">
@@ -16345,7 +16345,7 @@
         <v>112</v>
       </c>
       <c r="F769">
-        <v>-2.429123479925042E-05</v>
+        <v>-2.429123479925216E-05</v>
       </c>
     </row>
     <row r="770" spans="1:6">
@@ -16705,7 +16705,7 @@
         <v>130</v>
       </c>
       <c r="F787">
-        <v>8.791022135043285E-05</v>
+        <v>8.791022135043111E-05</v>
       </c>
     </row>
     <row r="788" spans="1:6">
@@ -16865,7 +16865,7 @@
         <v>138</v>
       </c>
       <c r="F795">
-        <v>0.0003102372938633309</v>
+        <v>0.0003102372938633326</v>
       </c>
     </row>
     <row r="796" spans="1:6">
@@ -17165,7 +17165,7 @@
         <v>5</v>
       </c>
       <c r="F810">
-        <v>0.006101338523879154</v>
+        <v>0.006101338523879155</v>
       </c>
     </row>
     <row r="811" spans="1:6">
@@ -17185,7 +17185,7 @@
         <v>153</v>
       </c>
       <c r="F811">
-        <v>0.006101338523879154</v>
+        <v>0.006101338523879155</v>
       </c>
     </row>
     <row r="812" spans="1:6">
@@ -17225,7 +17225,7 @@
         <v>153</v>
       </c>
       <c r="F813">
-        <v>0.006101338523879154</v>
+        <v>0.006101338523879155</v>
       </c>
     </row>
     <row r="814" spans="1:6">
@@ -17325,7 +17325,7 @@
         <v>5</v>
       </c>
       <c r="F818">
-        <v>0.006101338523879154</v>
+        <v>0.006101338523879155</v>
       </c>
     </row>
     <row r="819" spans="1:6">
@@ -17505,7 +17505,7 @@
         <v>154</v>
       </c>
       <c r="F827">
-        <v>-0.0002129236302157364</v>
+        <v>-0.0002129236302157365</v>
       </c>
     </row>
     <row r="828" spans="1:6">
@@ -17645,7 +17645,7 @@
         <v>161</v>
       </c>
       <c r="F834">
-        <v>-7.299139957898827E-05</v>
+        <v>-7.299139957898828E-05</v>
       </c>
     </row>
     <row r="835" spans="1:6">
@@ -17685,7 +17685,7 @@
         <v>155</v>
       </c>
       <c r="F836">
-        <v>-0.0003323328722476772</v>
+        <v>-0.0003323328722476763</v>
       </c>
     </row>
     <row r="837" spans="1:6">
@@ -17705,7 +17705,7 @@
         <v>156</v>
       </c>
       <c r="F837">
-        <v>0.003550197795832466</v>
+        <v>0.003550197795832467</v>
       </c>
     </row>
     <row r="838" spans="1:6">
@@ -17725,7 +17725,7 @@
         <v>157</v>
       </c>
       <c r="F838">
-        <v>0.0003796568507886816</v>
+        <v>0.0003796568507886825</v>
       </c>
     </row>
     <row r="839" spans="1:6">
@@ -17745,7 +17745,7 @@
         <v>158</v>
       </c>
       <c r="F839">
-        <v>0.0006394033392923618</v>
+        <v>0.0006394033392923626</v>
       </c>
     </row>
     <row r="840" spans="1:6">
@@ -17785,7 +17785,7 @@
         <v>160</v>
       </c>
       <c r="F841">
-        <v>5.514841428018794E-05</v>
+        <v>5.51484142801888E-05</v>
       </c>
     </row>
     <row r="842" spans="1:6">
@@ -17805,7 +17805,7 @@
         <v>161</v>
       </c>
       <c r="F842">
-        <v>0.0001235078204069734</v>
+        <v>0.0001235078204069743</v>
       </c>
     </row>
     <row r="843" spans="1:6">
@@ -18265,7 +18265,7 @@
         <v>159</v>
       </c>
       <c r="F865">
-        <v>-2.429123479925042E-05</v>
+        <v>-2.429123479925216E-05</v>
       </c>
     </row>
     <row r="866" spans="1:6">
@@ -18325,7 +18325,7 @@
         <v>5</v>
       </c>
       <c r="F868">
-        <v>0.006101338523879154</v>
+        <v>0.006101338523879155</v>
       </c>
     </row>
     <row r="869" spans="1:6">
@@ -18785,7 +18785,7 @@
         <v>162</v>
       </c>
       <c r="F891">
-        <v>8.929959802344084E-05</v>
+        <v>8.929959802344085E-05</v>
       </c>
     </row>
     <row r="892" spans="1:6">
@@ -18805,7 +18805,7 @@
         <v>163</v>
       </c>
       <c r="F892">
-        <v>-8.099452567053903E-05</v>
+        <v>-8.099452567053904E-05</v>
       </c>
     </row>
     <row r="893" spans="1:6">
@@ -18845,7 +18845,7 @@
         <v>154</v>
       </c>
       <c r="F894">
-        <v>-0.0002129236302157364</v>
+        <v>-0.0002129236302157365</v>
       </c>
     </row>
     <row r="895" spans="1:6">
@@ -18945,7 +18945,7 @@
         <v>169</v>
       </c>
       <c r="F899">
-        <v>0.0002226858887729263</v>
+        <v>0.0002226858887729264</v>
       </c>
     </row>
     <row r="900" spans="1:6">
@@ -18965,7 +18965,7 @@
         <v>170</v>
       </c>
       <c r="F900">
-        <v>-7.299139957898827E-05</v>
+        <v>-7.299139957898828E-05</v>
       </c>
     </row>
     <row r="901" spans="1:6">
@@ -18985,7 +18985,7 @@
         <v>171</v>
       </c>
       <c r="F901">
-        <v>-0.0004856911063422235</v>
+        <v>-0.0004856911063422236</v>
       </c>
     </row>
     <row r="902" spans="1:6">
@@ -19025,7 +19025,7 @@
         <v>173</v>
       </c>
       <c r="F903">
-        <v>0.0001574722239259233</v>
+        <v>0.0001574722239259234</v>
       </c>
     </row>
     <row r="904" spans="1:6">
@@ -19105,7 +19105,7 @@
         <v>177</v>
       </c>
       <c r="F907">
-        <v>-0.0001974962547137306</v>
+        <v>-0.0001974962547137307</v>
       </c>
     </row>
     <row r="908" spans="1:6">
@@ -19145,7 +19145,7 @@
         <v>179</v>
       </c>
       <c r="F909">
-        <v>0.0001019310969612291</v>
+        <v>0.0001019310969612292</v>
       </c>
     </row>
     <row r="910" spans="1:6">
@@ -19165,7 +19165,7 @@
         <v>180</v>
       </c>
       <c r="F910">
-        <v>-8.077369658485022E-05</v>
+        <v>-8.077369658485023E-05</v>
       </c>
     </row>
     <row r="911" spans="1:6">
@@ -19225,7 +19225,7 @@
         <v>162</v>
       </c>
       <c r="F913">
-        <v>-4.480649831314909E-05</v>
+        <v>-4.480649831314822E-05</v>
       </c>
     </row>
     <row r="914" spans="1:6">
@@ -19245,7 +19245,7 @@
         <v>163</v>
       </c>
       <c r="F914">
-        <v>0.0002374513830879612</v>
+        <v>0.000237451383087962</v>
       </c>
     </row>
     <row r="915" spans="1:6">
@@ -19265,7 +19265,7 @@
         <v>164</v>
       </c>
       <c r="F915">
-        <v>-1.484666794749918E-05</v>
+        <v>-1.484666794749831E-05</v>
       </c>
     </row>
     <row r="916" spans="1:6">
@@ -19305,7 +19305,7 @@
         <v>165</v>
       </c>
       <c r="F917">
-        <v>-0.0001959073367934607</v>
+        <v>-0.0001959073367934598</v>
       </c>
     </row>
     <row r="918" spans="1:6">
@@ -19325,7 +19325,7 @@
         <v>166</v>
       </c>
       <c r="F918">
-        <v>-0.0001069202534333498</v>
+        <v>-0.0001069202534333489</v>
       </c>
     </row>
     <row r="919" spans="1:6">
@@ -19345,7 +19345,7 @@
         <v>167</v>
       </c>
       <c r="F919">
-        <v>5.514841428018794E-05</v>
+        <v>5.51484142801888E-05</v>
       </c>
     </row>
     <row r="920" spans="1:6">
@@ -19365,7 +19365,7 @@
         <v>168</v>
       </c>
       <c r="F920">
-        <v>0.0002315307392961622</v>
+        <v>0.000231530739296164</v>
       </c>
     </row>
     <row r="921" spans="1:6">
@@ -19385,7 +19385,7 @@
         <v>169</v>
       </c>
       <c r="F921">
-        <v>-0.000316754846381594</v>
+        <v>-0.0003167548463815931</v>
       </c>
     </row>
     <row r="922" spans="1:6">
@@ -19405,7 +19405,7 @@
         <v>170</v>
       </c>
       <c r="F922">
-        <v>0.0001235078204069734</v>
+        <v>0.0001235078204069743</v>
       </c>
     </row>
     <row r="923" spans="1:6">
@@ -19425,7 +19425,7 @@
         <v>171</v>
       </c>
       <c r="F923">
-        <v>0.0003278991456944968</v>
+        <v>0.0003278991456944977</v>
       </c>
     </row>
     <row r="924" spans="1:6">
@@ -19445,7 +19445,7 @@
         <v>172</v>
       </c>
       <c r="F924">
-        <v>0.0002081614605246879</v>
+        <v>0.0002081614605246888</v>
       </c>
     </row>
     <row r="925" spans="1:6">
@@ -19465,7 +19465,7 @@
         <v>173</v>
       </c>
       <c r="F925">
-        <v>-7.889383665279481E-05</v>
+        <v>-7.889383665279394E-05</v>
       </c>
     </row>
     <row r="926" spans="1:6">
@@ -19505,7 +19505,7 @@
         <v>175</v>
       </c>
       <c r="F927">
-        <v>-0.0003323328722476772</v>
+        <v>-0.0003323328722476763</v>
       </c>
     </row>
     <row r="928" spans="1:6">
@@ -19525,7 +19525,7 @@
         <v>176</v>
       </c>
       <c r="F928">
-        <v>-5.471129324812092E-05</v>
+        <v>-5.471129324812005E-05</v>
       </c>
     </row>
     <row r="929" spans="1:6">
@@ -19545,7 +19545,7 @@
         <v>177</v>
       </c>
       <c r="F929">
-        <v>0.0002575001059763656</v>
+        <v>0.0002575001059763665</v>
       </c>
     </row>
     <row r="930" spans="1:6">
@@ -19565,7 +19565,7 @@
         <v>178</v>
       </c>
       <c r="F930">
-        <v>0.0001532074371478802</v>
+        <v>0.0001532074371478811</v>
       </c>
     </row>
     <row r="931" spans="1:6">
@@ -19585,7 +19585,7 @@
         <v>179</v>
       </c>
       <c r="F931">
-        <v>-4.336808689942018E-18</v>
+        <v>-3.469446951953614E-18</v>
       </c>
     </row>
     <row r="932" spans="1:6">
@@ -19605,7 +19605,7 @@
         <v>180</v>
       </c>
       <c r="F932">
-        <v>0.0008249432971943558</v>
+        <v>0.0008249432971943567</v>
       </c>
     </row>
     <row r="933" spans="1:6">
@@ -19625,7 +19625,7 @@
         <v>181</v>
       </c>
       <c r="F933">
-        <v>0.002035989320133666</v>
+        <v>0.002035989320133667</v>
       </c>
     </row>
     <row r="934" spans="1:6">
@@ -19645,7 +19645,7 @@
         <v>182</v>
       </c>
       <c r="F934">
-        <v>-0.0002250936948029313</v>
+        <v>-0.0002250936948029305</v>
       </c>
     </row>
     <row r="935" spans="1:6">
@@ -20825,7 +20825,7 @@
         <v>174</v>
       </c>
       <c r="F993">
-        <v>-2.429123479925042E-05</v>
+        <v>-2.429123479925216E-05</v>
       </c>
     </row>
     <row r="994" spans="1:6">
@@ -21005,7 +21005,7 @@
         <v>5</v>
       </c>
       <c r="F1002">
-        <v>0.006101338523879154</v>
+        <v>0.006101338523879155</v>
       </c>
     </row>
     <row r="1003" spans="1:6">
@@ -21185,7 +21185,7 @@
         <v>183</v>
       </c>
       <c r="F1011">
-        <v>-5.557641305607519E-05</v>
+        <v>-5.55764130560752E-05</v>
       </c>
     </row>
     <row r="1012" spans="1:6">
@@ -21325,7 +21325,7 @@
         <v>190</v>
       </c>
       <c r="F1018">
-        <v>-7.950037279190215E-05</v>
+        <v>-7.950037279190216E-05</v>
       </c>
     </row>
     <row r="1019" spans="1:6">
@@ -21345,7 +21345,7 @@
         <v>183</v>
       </c>
       <c r="F1019">
-        <v>5.029114302721252E-05</v>
+        <v>5.029114302721339E-05</v>
       </c>
     </row>
     <row r="1020" spans="1:6">
@@ -21365,7 +21365,7 @@
         <v>184</v>
       </c>
       <c r="F1020">
-        <v>-0.0002216477328975059</v>
+        <v>-0.000221647732897505</v>
       </c>
     </row>
     <row r="1021" spans="1:6">
@@ -21385,7 +21385,7 @@
         <v>185</v>
       </c>
       <c r="F1021">
-        <v>-0.0002153507944291262</v>
+        <v>-0.0002153507944291254</v>
       </c>
     </row>
     <row r="1022" spans="1:6">
@@ -21405,7 +21405,7 @@
         <v>186</v>
       </c>
       <c r="F1022">
-        <v>0.0001648110057228449</v>
+        <v>0.0001648110057228458</v>
       </c>
     </row>
     <row r="1023" spans="1:6">
@@ -21425,7 +21425,7 @@
         <v>187</v>
       </c>
       <c r="F1023">
-        <v>-0.0001062550867303187</v>
+        <v>-0.0001062550867303178</v>
       </c>
     </row>
     <row r="1024" spans="1:6">
@@ -21445,7 +21445,7 @@
         <v>188</v>
       </c>
       <c r="F1024">
-        <v>0.000388952222460064</v>
+        <v>0.0003889522224600648</v>
       </c>
     </row>
     <row r="1025" spans="1:6">
@@ -21465,7 +21465,7 @@
         <v>189</v>
       </c>
       <c r="F1025">
-        <v>6.215728654059526E-05</v>
+        <v>6.215728654059612E-05</v>
       </c>
     </row>
     <row r="1026" spans="1:6">
@@ -21965,7 +21965,7 @@
         <v>189</v>
       </c>
       <c r="F1050">
-        <v>8.791022135043285E-05</v>
+        <v>8.791022135043111E-05</v>
       </c>
     </row>
     <row r="1051" spans="1:6">
@@ -22005,7 +22005,7 @@
         <v>5</v>
       </c>
       <c r="F1052">
-        <v>0.006101338523879154</v>
+        <v>0.006101338523879155</v>
       </c>
     </row>
     <row r="1053" spans="1:6">
@@ -22125,7 +22125,7 @@
         <v>192</v>
       </c>
       <c r="F1058">
-        <v>-0.0004189817080520733</v>
+        <v>-0.0004189817080520734</v>
       </c>
     </row>
     <row r="1059" spans="1:6">
@@ -22145,7 +22145,7 @@
         <v>193</v>
       </c>
       <c r="F1059">
-        <v>0.0001019310969612291</v>
+        <v>0.0001019310969612292</v>
       </c>
     </row>
     <row r="1060" spans="1:6">
@@ -22165,7 +22165,7 @@
         <v>194</v>
       </c>
       <c r="F1060">
-        <v>0.0002493462003601772</v>
+        <v>0.0002493462003601773</v>
       </c>
     </row>
     <row r="1061" spans="1:6">
@@ -22185,7 +22185,7 @@
         <v>191</v>
       </c>
       <c r="F1061">
-        <v>0.001272766786180669</v>
+        <v>0.00127276678618067</v>
       </c>
     </row>
     <row r="1062" spans="1:6">
@@ -22205,7 +22205,7 @@
         <v>192</v>
       </c>
       <c r="F1062">
-        <v>0.001515964580471211</v>
+        <v>0.001515964580471212</v>
       </c>
     </row>
     <row r="1063" spans="1:6">
@@ -22225,7 +22225,7 @@
         <v>193</v>
       </c>
       <c r="F1063">
-        <v>-4.336808689942018E-18</v>
+        <v>-3.469446951953614E-18</v>
       </c>
     </row>
     <row r="1064" spans="1:6">
@@ -22245,7 +22245,7 @@
         <v>194</v>
       </c>
       <c r="F1064">
-        <v>0.0009641024214162098</v>
+        <v>0.0009641024214162106</v>
       </c>
     </row>
     <row r="1065" spans="1:6">
@@ -22525,7 +22525,7 @@
         <v>5</v>
       </c>
       <c r="F1078">
-        <v>0.006101338523879154</v>
+        <v>0.006101338523879155</v>
       </c>
     </row>
     <row r="1079" spans="1:6">
@@ -22545,7 +22545,7 @@
         <v>195</v>
       </c>
       <c r="F1079">
-        <v>0.005527413881856447</v>
+        <v>0.005527413881856448</v>
       </c>
     </row>
     <row r="1080" spans="1:6">
@@ -22685,7 +22685,7 @@
         <v>196</v>
       </c>
       <c r="F1086">
-        <v>0.0002400846770283117</v>
+        <v>0.0002400846770283125</v>
       </c>
     </row>
     <row r="1087" spans="1:6">
@@ -22705,7 +22705,7 @@
         <v>197</v>
       </c>
       <c r="F1087">
-        <v>0.0003165846698651954</v>
+        <v>0.0003165846698651963</v>
       </c>
     </row>
     <row r="1088" spans="1:6">
@@ -22745,7 +22745,7 @@
         <v>195</v>
       </c>
       <c r="F1089">
-        <v>0.007817525585388722</v>
+        <v>0.007817525585388724</v>
       </c>
     </row>
     <row r="1090" spans="1:6">
